--- a/Data/Transitions/19581972Translation.xlsx
+++ b/Data/Transitions/19581972Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="673">
   <si>
     <t>id</t>
   </si>
@@ -427,7 +427,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986, 738.0: 0.007169576059850374, 228.0: 0.007169576059850374}</t>
@@ -619,7 +619,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1709,9 +1709,6 @@
   </si>
   <si>
     <t>{235.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9947452593100297, 738.0: 0.003714175107252557, 228.0: 0.001540565582717742}</t>
@@ -3892,7 +3889,7 @@
         <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>565</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3903,7 +3900,7 @@
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3914,7 +3911,7 @@
         <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3969,7 +3966,7 @@
         <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4035,7 +4032,7 @@
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4101,7 +4098,7 @@
         <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4112,7 +4109,7 @@
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -4145,7 +4142,7 @@
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4156,7 +4153,7 @@
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4200,7 +4197,7 @@
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4288,7 +4285,7 @@
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4299,7 +4296,7 @@
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4310,7 +4307,7 @@
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4321,7 +4318,7 @@
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4376,7 +4373,7 @@
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4398,7 +4395,7 @@
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4409,7 +4406,7 @@
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4431,7 +4428,7 @@
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4453,7 +4450,7 @@
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4464,7 +4461,7 @@
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4475,7 +4472,7 @@
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4541,7 +4538,7 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4596,7 +4593,7 @@
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>565</v>
+        <v>201</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4629,7 +4626,7 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4640,7 +4637,7 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4651,7 +4648,7 @@
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4673,7 +4670,7 @@
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4728,7 +4725,7 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4794,7 +4791,7 @@
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4849,7 +4846,7 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4871,7 +4868,7 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4948,7 +4945,7 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4992,7 +4989,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5014,7 +5011,7 @@
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5058,7 +5055,7 @@
         <v>243</v>
       </c>
       <c r="C242" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -5080,7 +5077,7 @@
         <v>245</v>
       </c>
       <c r="C244" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5091,7 +5088,7 @@
         <v>246</v>
       </c>
       <c r="C245" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5245,7 +5242,7 @@
         <v>260</v>
       </c>
       <c r="C259" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5289,7 +5286,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5300,7 +5297,7 @@
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5377,7 +5374,7 @@
         <v>272</v>
       </c>
       <c r="C271" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5388,7 +5385,7 @@
         <v>273</v>
       </c>
       <c r="C272" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5454,7 +5451,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5465,7 +5462,7 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5553,7 +5550,7 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5586,7 +5583,7 @@
         <v>291</v>
       </c>
       <c r="C290" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5608,7 +5605,7 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5619,7 +5616,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5641,7 +5638,7 @@
         <v>296</v>
       </c>
       <c r="C295" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5663,7 +5660,7 @@
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5685,7 +5682,7 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5707,7 +5704,7 @@
         <v>302</v>
       </c>
       <c r="C301" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5762,7 +5759,7 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5795,7 +5792,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5905,7 +5902,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5916,7 +5913,7 @@
         <v>321</v>
       </c>
       <c r="C320" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5960,7 +5957,7 @@
         <v>325</v>
       </c>
       <c r="C324" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5982,7 +5979,7 @@
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6048,7 +6045,7 @@
         <v>333</v>
       </c>
       <c r="C332" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6081,7 +6078,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6103,7 +6100,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6158,7 +6155,7 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6180,7 +6177,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6279,7 +6276,7 @@
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6290,7 +6287,7 @@
         <v>355</v>
       </c>
       <c r="C354" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6301,7 +6298,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6312,7 +6309,7 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6400,7 +6397,7 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6422,7 +6419,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6466,7 +6463,7 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6477,7 +6474,7 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6521,7 +6518,7 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6587,7 +6584,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6598,7 +6595,7 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6642,7 +6639,7 @@
         <v>387</v>
       </c>
       <c r="C386" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6697,7 +6694,7 @@
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6741,7 +6738,7 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7005,7 +7002,7 @@
         <v>420</v>
       </c>
       <c r="C419" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -7016,7 +7013,7 @@
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7060,7 +7057,7 @@
         <v>425</v>
       </c>
       <c r="C424" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -7071,7 +7068,7 @@
         <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7093,7 +7090,7 @@
         <v>428</v>
       </c>
       <c r="C427" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -7126,7 +7123,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7137,7 +7134,7 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7148,7 +7145,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7159,7 +7156,7 @@
         <v>434</v>
       </c>
       <c r="C433" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7170,7 +7167,7 @@
         <v>435</v>
       </c>
       <c r="C434" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7192,7 +7189,7 @@
         <v>437</v>
       </c>
       <c r="C436" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7247,7 +7244,7 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7269,7 +7266,7 @@
         <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7313,7 +7310,7 @@
         <v>448</v>
       </c>
       <c r="C447" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -7368,7 +7365,7 @@
         <v>453</v>
       </c>
       <c r="C452" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7390,7 +7387,7 @@
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7434,7 +7431,7 @@
         <v>459</v>
       </c>
       <c r="C458" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7445,7 +7442,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7456,7 +7453,7 @@
         <v>461</v>
       </c>
       <c r="C460" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7511,7 +7508,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7522,7 +7519,7 @@
         <v>467</v>
       </c>
       <c r="C466" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -7544,7 +7541,7 @@
         <v>469</v>
       </c>
       <c r="C468" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7566,7 +7563,7 @@
         <v>471</v>
       </c>
       <c r="C470" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7687,7 +7684,7 @@
         <v>482</v>
       </c>
       <c r="C481" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -7720,7 +7717,7 @@
         <v>485</v>
       </c>
       <c r="C484" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -7753,7 +7750,7 @@
         <v>488</v>
       </c>
       <c r="C487" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -7841,7 +7838,7 @@
         <v>496</v>
       </c>
       <c r="C495" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -7863,7 +7860,7 @@
         <v>498</v>
       </c>
       <c r="C497" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -7885,7 +7882,7 @@
         <v>500</v>
       </c>
       <c r="C499" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -7896,7 +7893,7 @@
         <v>501</v>
       </c>
       <c r="C500" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -7918,7 +7915,7 @@
         <v>503</v>
       </c>
       <c r="C502" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -7940,7 +7937,7 @@
         <v>505</v>
       </c>
       <c r="C504" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -8039,7 +8036,7 @@
         <v>514</v>
       </c>
       <c r="C513" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
